--- a/resultados/resultados_221129.xlsx
+++ b/resultados/resultados_221129.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ufranca/Documents/Dropbox/other_projects/FIA-Ajepi/Mundial2022/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A58A86F-3777-914E-BBF9-E7D333B88083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3C2C82-3009-0945-BD41-4E811F68ED9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="500" windowWidth="26480" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <dimension ref="A1:H348"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="K173" sqref="K173"/>
+      <selection activeCell="H175" sqref="H175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4788,11 +4788,17 @@
       </c>
       <c r="D172">
         <f>D155+E172</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E172">
         <f>3*F172+G172</f>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -4807,11 +4813,17 @@
       </c>
       <c r="D173">
         <f t="shared" ref="D173:D188" si="18">D156+E173</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E173">
         <f t="shared" ref="E173:E188" si="19">3*F173+G173</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -4826,11 +4838,17 @@
       </c>
       <c r="D174">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E174">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -4845,11 +4863,17 @@
       </c>
       <c r="D175">
         <f t="shared" si="18"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E175">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -4864,14 +4888,20 @@
       </c>
       <c r="D176">
         <f t="shared" si="18"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E176">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>20</v>
       </c>
@@ -4883,14 +4913,20 @@
       </c>
       <c r="D177">
         <f t="shared" si="18"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E177">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>21</v>
       </c>
@@ -4902,14 +4938,20 @@
       </c>
       <c r="D178">
         <f t="shared" si="18"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E178">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -4921,14 +4963,20 @@
       </c>
       <c r="D179">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E179">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="F179">
+        <v>2</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -4940,14 +4988,20 @@
       </c>
       <c r="D180">
         <f t="shared" si="18"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E180">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F180">
+        <v>2</v>
+      </c>
+      <c r="G180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>9</v>
       </c>
@@ -4959,14 +5013,20 @@
       </c>
       <c r="D181">
         <f t="shared" si="18"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E181">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F181">
+        <v>2</v>
+      </c>
+      <c r="G181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>18</v>
       </c>
@@ -4978,14 +5038,20 @@
       </c>
       <c r="D182">
         <f t="shared" si="18"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E182">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="G182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>10</v>
       </c>
@@ -4997,14 +5063,20 @@
       </c>
       <c r="D183">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E183">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -5016,14 +5088,20 @@
       </c>
       <c r="D184">
         <f t="shared" si="18"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E184">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>12</v>
       </c>
@@ -5035,14 +5113,20 @@
       </c>
       <c r="D185">
         <f t="shared" si="18"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E185">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -5054,14 +5138,20 @@
       </c>
       <c r="D186">
         <f t="shared" si="18"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E186">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>14</v>
       </c>
@@ -5073,14 +5163,20 @@
       </c>
       <c r="D187">
         <f t="shared" si="18"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E187">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>15</v>
       </c>
@@ -5092,11 +5188,17 @@
       </c>
       <c r="D188">
         <f t="shared" si="18"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E188">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188">
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
